--- a/biology/Botanique/Hordeum_pusillum/Hordeum_pusillum.xlsx
+++ b/biology/Botanique/Hordeum_pusillum/Hordeum_pusillum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hordeum pusillum, la petite orge ou orge naine, est une espèce de plantes monocotylédones de la famille des Poaceae (Gramineae), sous-famille des Pooideae, originaire d'Amérique du Nord et d'Amérique du Sud.
-Cette plante, dont les minuscules graines sont comestibles, faisait partie du complexe de plantes cultivées (Eastern agricultural complex) qui étaient utilisées à l'époque précolombienne par les Amérindiens des États-Unis[2].
+Cette plante, dont les minuscules graines sont comestibles, faisait partie du complexe de plantes cultivées (Eastern agricultural complex) qui étaient utilisées à l'époque précolombienne par les Amérindiens des États-Unis.
 </t>
         </is>
       </c>
@@ -514,14 +526,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (22 avril 2022)[1] : 
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (22 avril 2022) : 
 Critesion pusillum (Nutt.) Á.Löve
 Hordeum intercedens Nevski
 Hordeum pusillum var. pubens Hitchc.
-Hordeum riehlii Steud.
-Variétés et sous-espèces
-Selon Tropicos                                           (22 avril 2022)[3] (Attention liste brute contenant possiblement des synonymes) :
+Hordeum riehlii Steud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hordeum_pusillum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hordeum_pusillum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés et sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (22 avril 2022) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Hordeum pusillum subsp. flexuosum (Nees) Covas
 Hordeum pusillum subsp. pusillum
